--- a/duplication.xlsx
+++ b/duplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,47 +446,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Robotics: Science and Systems</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CoRL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RO-MAN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Humanoids</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ISRR</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>IEEE Robotics Autom. Lett.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>IEEE Trans. Robotics</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Int. J. Robotics Res.</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Sci. Robotics</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Robotics: Science and Systems</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CoRL</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RO-MAN</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Humanoids</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ISRR</t>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Nature</t>
         </is>
       </c>
     </row>
@@ -503,30 +508,33 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>13</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/duplication.xlsx
+++ b/duplication.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Sci. Robotics</t>
+          <t>Science</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/duplication.xlsx
+++ b/duplication.xlsx
@@ -1,37 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>ICRA</t>
+  </si>
+  <si>
+    <t>IROS</t>
+  </si>
+  <si>
+    <t>IEEE Robotics Autom. Lett.</t>
+  </si>
+  <si>
+    <t>IEEE Trans. Robotics</t>
+  </si>
+  <si>
+    <t>Int. J. Robotics Res.</t>
+  </si>
+  <si>
+    <t>Sci. Robotics</t>
+  </si>
+  <si>
+    <t>Robotics: Science and Systems</t>
+  </si>
+  <si>
+    <t>CoRL</t>
+  </si>
+  <si>
+    <t>RO-MAN</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>ECC</t>
+  </si>
+  <si>
+    <t>IEEE Control. Syst. Lett.</t>
+  </si>
+  <si>
+    <t>IEEE Trans. Autom. Control.</t>
+  </si>
+  <si>
+    <t>CVPR</t>
+  </si>
+  <si>
+    <t>NeurIPS</t>
+  </si>
+  <si>
+    <t>BHT Berlin</t>
+  </si>
+  <si>
+    <t>Constructor Uni Bremen</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>FAU Erlangen</t>
+  </si>
+  <si>
+    <t>Fraunhofer</t>
+  </si>
+  <si>
+    <t>FU Berlin</t>
+  </si>
+  <si>
+    <t>HU Berlin</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>LMU</t>
+  </si>
+  <si>
+    <t>LU Hannover</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>RWTH Aachen</t>
+  </si>
+  <si>
+    <t>TU Berlin</t>
+  </si>
+  <si>
+    <t>TU Braunschweig</t>
+  </si>
+  <si>
+    <t>TU Chemnitz</t>
+  </si>
+  <si>
+    <t>TU Darmstadt</t>
+  </si>
+  <si>
+    <t>TU Dortmund</t>
+  </si>
+  <si>
+    <t>TU Dresden</t>
+  </si>
+  <si>
+    <t>TU Ilmenau</t>
+  </si>
+  <si>
+    <t>TU Kaiserslautern</t>
+  </si>
+  <si>
+    <t>TUM</t>
+  </si>
+  <si>
+    <t>Uni Augsburg</t>
+  </si>
+  <si>
+    <t>Uni Bamberg</t>
+  </si>
+  <si>
+    <t>Uni Bayreuth</t>
+  </si>
+  <si>
+    <t>Uni Bielefeld</t>
+  </si>
+  <si>
+    <t>Uni Bonn</t>
+  </si>
+  <si>
+    <t>Uni Bremen</t>
+  </si>
+  <si>
+    <t>Uni Freiburg</t>
+  </si>
+  <si>
+    <t>Uni Hamburg</t>
+  </si>
+  <si>
+    <t>Uni Heidelberg</t>
+  </si>
+  <si>
+    <t>Uni Magdeburg</t>
+  </si>
+  <si>
+    <t>Uni Stuttgart</t>
+  </si>
+  <si>
+    <t>Uni Tübingen</t>
+  </si>
+  <si>
+    <t>Universität der Künste Berlin</t>
+  </si>
+  <si>
+    <t>Universitätsklinikums Hamburg-Eppendorf</t>
+  </si>
+  <si>
+    <t>University of Oldenburg</t>
+  </si>
+  <si>
+    <t>University of Osnabrück</t>
+  </si>
+  <si>
+    <t>UTN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +216,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,125 +532,2078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ICRA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IROS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Robotics: Science and Systems</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CoRL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RO-MAN</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Humanoids</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ISRR</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IEEE Robotics Autom. Lett.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IEEE Trans. Robotics</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Int. J. Robotics Res.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Science</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Nature</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>TUM</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>